--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3166.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3166.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.672049817600567</v>
+        <v>0.985095739364624</v>
       </c>
       <c r="B1">
-        <v>1.795299208697243</v>
+        <v>2.205040693283081</v>
       </c>
       <c r="C1">
-        <v>2.066414591295601</v>
+        <v>5.043397426605225</v>
       </c>
       <c r="D1">
-        <v>3.327617969383144</v>
+        <v>1.796114206314087</v>
       </c>
       <c r="E1">
-        <v>6.860236134615792</v>
+        <v>1.298387765884399</v>
       </c>
     </row>
   </sheetData>
